--- a/admission/accounts.xlsx
+++ b/admission/accounts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5367" uniqueCount="3124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5367" uniqueCount="3126">
   <si>
     <t>Student Name</t>
   </si>
@@ -9345,52 +9345,58 @@
     <t>malindi</t>
   </si>
   <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
+    <t>0724873955</t>
+  </si>
+  <si>
+    <t>0729364460</t>
+  </si>
+  <si>
+    <t>0706878217</t>
+  </si>
+  <si>
+    <t>0713944733</t>
+  </si>
+  <si>
+    <t>0715822461</t>
+  </si>
+  <si>
+    <t>0737594960</t>
+  </si>
+  <si>
+    <t>0714598196</t>
+  </si>
+  <si>
+    <t>0790718712</t>
+  </si>
+  <si>
+    <t>0795925532</t>
+  </si>
+  <si>
+    <t>0746517231</t>
+  </si>
+  <si>
+    <t>0719322330</t>
+  </si>
+  <si>
+    <t>0729113597</t>
+  </si>
+  <si>
+    <t>0723892201</t>
+  </si>
+  <si>
+    <t>0729250018</t>
+  </si>
+  <si>
+    <t>0722889511</t>
+  </si>
+  <si>
+    <t>0718133182</t>
+  </si>
+  <si>
+    <t>0726136717</t>
+  </si>
+  <si>
+    <t>0759062697</t>
   </si>
 </sst>
 </file>
@@ -9612,7 +9618,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -9931,8 +9939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A546" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="B560" sqref="B560"/>
+    <sheetView tabSelected="1" topLeftCell="A434" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection activeCell="B449" sqref="B449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30383,7 +30391,7 @@
         <v>3077</v>
       </c>
       <c r="B547" s="31" t="s">
-        <v>1382</v>
+        <v>3108</v>
       </c>
       <c r="C547" s="15" t="s">
         <v>3038</v>
@@ -30422,7 +30430,7 @@
         <v>3078</v>
       </c>
       <c r="B548" s="31" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="C548" s="15" t="s">
         <v>3040</v>
@@ -30461,7 +30469,7 @@
         <v>3079</v>
       </c>
       <c r="B549" s="31" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="C549" s="15" t="s">
         <v>3042</v>
@@ -30500,7 +30508,7 @@
         <v>3080</v>
       </c>
       <c r="B550" s="31" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="C550" s="15" t="s">
         <v>3044</v>
@@ -30539,7 +30547,7 @@
         <v>3081</v>
       </c>
       <c r="B551" s="31" t="s">
-        <v>3111</v>
+        <v>3125</v>
       </c>
       <c r="C551" s="15" t="s">
         <v>3046</v>
@@ -30651,12 +30659,12 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="554" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A554" s="30" t="s">
         <v>3084</v>
       </c>
       <c r="B554" s="31" t="s">
-        <v>2981</v>
+        <v>3114</v>
       </c>
       <c r="C554" s="15" t="s">
         <v>3053</v>
@@ -30695,7 +30703,7 @@
         <v>3085</v>
       </c>
       <c r="B555" s="31" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="C555" s="15" t="s">
         <v>3055</v>
@@ -30734,7 +30742,7 @@
         <v>3086</v>
       </c>
       <c r="B556" s="31" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="C556" s="15" t="s">
         <v>3057</v>
@@ -30773,7 +30781,7 @@
         <v>3087</v>
       </c>
       <c r="B557" s="31" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="C557" s="15" t="s">
         <v>3059</v>
@@ -30812,7 +30820,7 @@
         <v>3088</v>
       </c>
       <c r="B558" s="31" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="C558" s="15" t="s">
         <v>3062</v>
@@ -30851,7 +30859,7 @@
         <v>3089</v>
       </c>
       <c r="B559" s="31" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="C559" s="15" t="s">
         <v>3064</v>
@@ -30888,7 +30896,7 @@
         <v>3090</v>
       </c>
       <c r="B560" s="31" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="C560" s="15" t="s">
         <v>3066</v>
@@ -30925,7 +30933,7 @@
         <v>3091</v>
       </c>
       <c r="B561" s="31" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="C561" s="15" t="s">
         <v>3069</v>
@@ -30958,7 +30966,7 @@
         <v>3092</v>
       </c>
       <c r="B562" s="31" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="C562" s="19" t="s">
         <v>3071</v>
@@ -30995,7 +31003,7 @@
         <v>3093</v>
       </c>
       <c r="B563" s="31" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="C563" s="15" t="s">
         <v>3073</v>
@@ -31034,7 +31042,7 @@
         <v>3094</v>
       </c>
       <c r="B564" s="31" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="C564" s="25" t="s">
         <v>3075</v>
@@ -31093,5 +31101,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId25"/>
+  <ignoredErrors>
+    <ignoredError sqref="B549" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>